--- a/data/input/absenteeism_data_29.xlsx
+++ b/data/input/absenteeism_data_29.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56472</v>
+        <v>30519</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antônio Carvalho</t>
+          <t>João Gabriel da Conceição</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>7049.48</v>
+        <v>7462.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84746</v>
+        <v>26621</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Luiza da Paz</t>
+          <t>Sra. Ana Beatriz Moura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,245 +523,245 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>11758.98</v>
+        <v>12177.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70974</v>
+        <v>76527</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Vitória Carvalho</t>
+          <t>Beatriz Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>3690.48</v>
+        <v>6613.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22494</v>
+        <v>81812</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Felipe Sales</t>
+          <t>Ana Vitória Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>8039.21</v>
+        <v>3883.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20938</v>
+        <v>5414</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vitor da Rosa</t>
+          <t>Caroline Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>3221.88</v>
+        <v>8562.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50526</v>
+        <v>9710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Luiz Fernando Jesus</t>
+          <t>Francisco Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>5457.11</v>
+        <v>5252.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25868</v>
+        <v>78091</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Lorenzo Almeida</t>
+          <t>Ana Laura Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>5687.73</v>
+        <v>8311.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42664</v>
+        <v>65477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Giovanna Fogaça</t>
+          <t>Luiz Gustavo da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>4117.19</v>
+        <v>4871.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65567</v>
+        <v>59481</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Fernando da Conceição</t>
+          <t>Carlos Eduardo Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>3592.41</v>
+        <v>4653.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73384</v>
+        <v>16829</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Silva</t>
+          <t>Luiz Miguel Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>4792.7</v>
+        <v>11636.83</v>
       </c>
     </row>
   </sheetData>
